--- a/CLAGN_outlier_flux_W2.xlsx
+++ b/CLAGN_outlier_flux_W2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Dropbox\University\University Work\Fourth Year\Project\New_project_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA45A823-A6F3-403F-80D9-3F19BC03923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F0F5E-2856-4867-8E81-D2993CF5E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C39F9C0-EC1E-45A7-A869-AAB69C3080A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AGN</t>
   </si>
@@ -50,19 +50,16 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>115210.24+520205.1</t>
-  </si>
-  <si>
-    <t>Investigate</t>
-  </si>
-  <si>
-    <t>164709.87+532202.2</t>
-  </si>
-  <si>
-    <t>213400.68+013828.4</t>
-  </si>
-  <si>
-    <t>213628.50-003811.8</t>
+    <t>115210.24+520205.1 - investigate</t>
+  </si>
+  <si>
+    <t>164709.87+532202.2 - investigate</t>
+  </si>
+  <si>
+    <t>213400.68+013828.4 - investigate</t>
+  </si>
+  <si>
+    <t>213628.50-003811.8 - investigate</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,35 +467,23 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
